--- a/data_impute_project/combinations/marine_mammals/combination_1_ABCD.xlsx
+++ b/data_impute_project/combinations/marine_mammals/combination_1_ABCD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,456 +436,616 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hb 19</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-19.17</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>11.21</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-14.81</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-9.460000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hb 20</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>-19.88</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>13.81</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-16.27</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-9.91</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>32 FO1Hepi</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-14.15</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>13.14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-6.75</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-6.99</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>33 FO2H</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-20.63</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>13.54</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-15.43</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-7.96</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S 17</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-14.51</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>12.93</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-9.76</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20 KR1Ph</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-15.09</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>15.06</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-11.57</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-7.8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21 KR2T</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-16.24</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>12.8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-11.98</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-7.97</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22 KR3S</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-16.31</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>13.06</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-9.949999999999999</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-7.67</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>23 KR4V</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-16.22</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>12.88</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-12.96</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24 KR5Mt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>-15.06</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>13.48</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>-9.369999999999999</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-8.52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>71 KR1BuTy</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>-15.61</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>12.87</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-9.16</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-11.52</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>72 KR2Sc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>-15.41</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>12.89</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-12.03</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-10.21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>73 KR3Mt</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>-17.22</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>15.33</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-13.59</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-11.93</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>74 KR4Fi</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>-15.37</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>12.42</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-11.6</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-9.93</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>75 KR5Mt</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>-14.61</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>13.45</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-10.61</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-8.15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hb 50</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>-19.34</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>8.33</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-14.48</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-5.75</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hb 28</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>-12.54</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>15.24</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-8.130000000000001</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hb 30</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>-15.98</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>11.21</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>-9.35</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-7.54</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KHb 25</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>-16.67</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>12.46</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>-11.13</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-7.99</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>26 SR2Fi</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>-16.65</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>12.23</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>-8.4</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-12.81</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hb 23</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>-20.7</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>8.630000000000001</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>-11.22</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-8.73</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hb 24</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>-13.71</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>13.08</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>-7.67</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-8.91</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hb 25</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>-16.96</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>12</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>-10.8</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hb 26</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>-15.98</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>13.18</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>-6.23</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-10.18</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hb 27</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>-13.41</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>16.96</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>-9.710000000000001</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>-8.970000000000001</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KHb 30</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>-17.01</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>11.99</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>-9.49</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-9.619999999999999</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>KHb 31</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>-13.5</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>14.52</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>-9.57</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-13.51</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27 SH1Ph</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>-14.78</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>14.2</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>-10.4</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-6.63</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28 SH2R</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>-14.94</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>15.29</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>-6.77</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>-6.5</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29 SH3V</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>-15</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>11.96</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>-7.98</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>-5.74</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KS 76</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>-14</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>12.32</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>-8.699999999999999</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>-6.33</v>
       </c>
     </row>
